--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220413_152916.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220413_152916.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>SSK</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
@@ -2336,6 +2339,12 @@
       <c r="F44" t="s">
         <v>197</v>
       </c>
+      <c r="G44" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
@@ -2357,7 +2366,7 @@
         <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H45" t="s">
         <v>244</v>
@@ -2539,7 +2548,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H52" t="s">
         <v>244</v>
@@ -2617,10 +2626,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2642,6 +2651,12 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
@@ -2689,10 +2704,10 @@
         <v>206</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2923,7 +2938,7 @@
         <v>212</v>
       </c>
       <c r="G67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H67" t="s">
         <v>244</v>
@@ -3027,10 +3042,10 @@
         <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3079,7 +3094,7 @@
         <v>218</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H73" t="s">
         <v>244</v>
@@ -3157,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
         <v>244</v>
@@ -3209,7 +3224,7 @@
         <v>221</v>
       </c>
       <c r="G78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
@@ -3235,7 +3250,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H79" t="s">
         <v>244</v>
@@ -3261,7 +3276,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H80" t="s">
         <v>244</v>
@@ -3287,7 +3302,7 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H81" t="s">
         <v>244</v>
@@ -3391,7 +3406,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
@@ -3417,7 +3432,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3443,7 +3458,7 @@
         <v>224</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H87" t="s">
         <v>244</v>
@@ -3494,6 +3509,12 @@
       <c r="F89" t="s">
         <v>97</v>
       </c>
+      <c r="G89" t="s">
+        <v>247</v>
+      </c>
+      <c r="H89" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -3567,7 +3588,7 @@
         <v>227</v>
       </c>
       <c r="G92" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
@@ -3671,7 +3692,7 @@
         <v>231</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>
@@ -3697,7 +3718,7 @@
         <v>232</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H97" t="s">
         <v>244</v>
@@ -3723,7 +3744,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H98" t="s">
         <v>244</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220413_152916.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220413_152916.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-13</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220413_152916.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220413_152916.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -2002,7 +1999,7 @@
         <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H31" t="s">
         <v>244</v>
@@ -2028,7 +2025,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H32" t="s">
         <v>244</v>
@@ -2080,7 +2077,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H34" t="s">
         <v>244</v>
@@ -2210,7 +2207,7 @@
         <v>194</v>
       </c>
       <c r="G39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H39" t="s">
         <v>244</v>
@@ -2340,7 +2337,7 @@
         <v>197</v>
       </c>
       <c r="G44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H44" t="s">
         <v>244</v>
@@ -2366,7 +2363,7 @@
         <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H45" t="s">
         <v>244</v>
@@ -2496,7 +2493,7 @@
         <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
         <v>244</v>
@@ -2548,7 +2545,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H52" t="s">
         <v>244</v>
@@ -2626,10 +2623,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2652,7 +2649,7 @@
         <v>205</v>
       </c>
       <c r="G56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H56" t="s">
         <v>244</v>
@@ -2704,10 +2701,10 @@
         <v>206</v>
       </c>
       <c r="G58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2808,7 +2805,7 @@
         <v>189</v>
       </c>
       <c r="G62" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H62" t="s">
         <v>244</v>
@@ -2938,7 +2935,7 @@
         <v>212</v>
       </c>
       <c r="G67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H67" t="s">
         <v>244</v>
@@ -3042,10 +3039,10 @@
         <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3094,7 +3091,7 @@
         <v>218</v>
       </c>
       <c r="G73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H73" t="s">
         <v>244</v>
@@ -3172,7 +3169,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
         <v>244</v>
@@ -3224,7 +3221,7 @@
         <v>221</v>
       </c>
       <c r="G78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
@@ -3250,7 +3247,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H79" t="s">
         <v>244</v>
@@ -3276,7 +3273,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H80" t="s">
         <v>244</v>
@@ -3302,7 +3299,7 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H81" t="s">
         <v>244</v>
@@ -3406,7 +3403,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
@@ -3432,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3458,7 +3455,7 @@
         <v>224</v>
       </c>
       <c r="G87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H87" t="s">
         <v>244</v>
@@ -3562,7 +3559,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H91" t="s">
         <v>244</v>
@@ -3588,7 +3585,7 @@
         <v>227</v>
       </c>
       <c r="G92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
@@ -3692,7 +3689,7 @@
         <v>231</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>
@@ -3718,7 +3715,7 @@
         <v>232</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H97" t="s">
         <v>244</v>
@@ -3744,7 +3741,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H98" t="s">
         <v>244</v>
